--- a/Genetic Algorithm Autom Pack/Experiment Data 2.xlsx
+++ b/Genetic Algorithm Autom Pack/Experiment Data 2.xlsx
@@ -217,6 +217,9385 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Effect</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of population size (Tournament selection)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average value</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$9:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$9:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>201.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>208.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>232.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>234.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>236.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>236.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Average gaps</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$9:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$9:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>214.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1806842896"/>
+        <c:axId val="-1806837456"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average runtime</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$9:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$9:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2837.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7112.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8371.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4008.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4652.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4446.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6531.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2126760208"/>
+        <c:axId val="-2126766736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1806842896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Population size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1806837456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1806837456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Value/Gaps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1806842896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2126766736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (in ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2126760208"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2126760208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2126766736"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Effect of different tournament size/ elitist top percentage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tournament size</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$23:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$23:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>232.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>235.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>235.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Elitist top percent</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$90:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$90:$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>232.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>234.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>236.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>231.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1734144096"/>
+        <c:axId val="-1734144640"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tournament size</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$23:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$23:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4885.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5953.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6252.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7925.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13477.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15340.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Elitist top percent</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$90:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$90:$F$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12598.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5989.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4602.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4527.4799999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4874.4799999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9552.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1689109952"/>
+        <c:axId val="-1689106144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1734144096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Percentage of population</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1734144640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1734144640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Average value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1734144096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1689106144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Runtime (in ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1689109952"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1689109952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1689106144"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Effect of different numbers of crossover</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> points</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TS (value)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$36:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$36:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>226.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>226.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>236.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>236.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>237.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>237.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>EL (value)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$103:$A$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$103:$C$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>229.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>229.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>234.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>235.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>233.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>RO (value)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$157:$A$162</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$157:$C$162</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>217.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>231.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>232.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1741714432"/>
+        <c:axId val="-1741714976"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>TS (time)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$36:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$36:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>31417.759999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31804.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5750.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4583.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4510.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4475.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>EL (time)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$103:$A$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$103:$F$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20952.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26163.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8147.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10400.959999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6364.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11530.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>RO (time)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$157:$A$162</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$157:$F$162</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28882.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29733.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4575.3599999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5800.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5189.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5792.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1699209808"/>
+        <c:axId val="-1699208720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1741714432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Crossover points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1741714976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1741714976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Average value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1741714432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1699208720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> (in ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1699209808"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1699209808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1699208720"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Effect of different swap probabilities</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TS (value)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$49:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$49:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>226.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>235.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>231.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>230.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>EL (value)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$116:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$116:$C$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>226.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>232.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>233.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>231.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>RO (value)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$170:$A$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$170:$C$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>228.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>235.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>231.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>231.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1690777392"/>
+        <c:axId val="-1690759984"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>TS (time)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$49:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$49:$F$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>27801.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14461.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4520</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4746.6400000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5410.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19987.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>EL (time)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$116:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$116:$F$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28956.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12144.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10839.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6921.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7373.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13460.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>RO (time)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$170:$A$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$170:$F$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22447.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4952.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5140.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7889.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16360.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32218.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2127517488"/>
+        <c:axId val="-1876458368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1690777392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Swap</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> probability</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1690759984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1690759984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Average value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1690777392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1876458368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Runtime (in ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2127517488"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2127517488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1876458368"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Effect of adding</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> other mutation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TS (value)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$62:$A$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$62:$C$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>235.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>234.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>232.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>229.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>EL (value)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$129:$A$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$129:$C$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>234.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>233.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>233.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>RO (value)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$183:$A$187</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$183:$C$187</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>232.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>222.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>219.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1695787040"/>
+        <c:axId val="-1695788128"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>TS (time)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$62:$A$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$62:$F$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4666.6400000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4771.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5839.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27093.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>EL (time)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$129:$A$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$129:$F$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6738.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9458.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6005.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5875.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6595.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>RO (time)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$183:$A$187</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$183:$F$187</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5016.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27950.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31712.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31279.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30522.240000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1688694608"/>
+        <c:axId val="-1688695152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1695787040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Mutation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> probability</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1695788128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1695788128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Average value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1695787040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1688695152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1688694608"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1688694608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1688695152"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Effect of population size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TS (value)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$9:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$9:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>201.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>208.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>232.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>234.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>236.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>236.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>EL (value)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$76:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$76:$C$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>209.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>229.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>231.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>234.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>234.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>RO (value)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$143:$A$149</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$143:$C$149</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>220.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>227.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>231.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>232.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2127520208"/>
+        <c:axId val="-1725863904"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>TS (time)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$9:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$9:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2837.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7112.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8371.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4008.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4652.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4446.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6531.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>EL (time)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$76:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$76:$F$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3479.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4954.4399999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4417.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6860.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7480.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7770.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9141.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>RO (time)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$143:$A$149</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$143:$F$149</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3696.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5618.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5246.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6097.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4758.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4825.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6679.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2127519120"/>
+        <c:axId val="-1695452816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2127520208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Populaton size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1725863904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1725863904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Average value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2127520208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1695452816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Run</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>time (in ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2127519120"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2127519120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1695452816"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>750793</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>174811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>67234</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33616</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>750795</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>163607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>739589</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>186018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>683558</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,8 +9863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4924,5 +14303,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Genetic Algorithm Autom Pack/Experiment Data 2.xlsx
+++ b/Genetic Algorithm Autom Pack/Experiment Data 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Simon\Documents\GitHub\PP3\Genetic Algorithm Autom Pack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GitHub\PP3\Genetic Algorithm Autom Pack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -290,7 +290,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -492,8 +492,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1806842896"/>
-        <c:axId val="-1806837456"/>
+        <c:axId val="256050136"/>
+        <c:axId val="256078976"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -598,11 +598,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126760208"/>
-        <c:axId val="-2126766736"/>
+        <c:axId val="256525208"/>
+        <c:axId val="256477184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1806842896"/>
+        <c:axId val="256050136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +674,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -712,15 +712,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1806837456"/>
+        <c:crossAx val="256078976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1806837456"/>
+        <c:axId val="256078976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,7 +792,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -830,15 +830,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1806842896"/>
+        <c:crossAx val="256050136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126766736"/>
+        <c:axId val="256477184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,7 +896,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -933,15 +933,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126760208"/>
+        <c:crossAx val="256525208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126760208"/>
+        <c:axId val="256525208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +951,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126766736"/>
+        <c:crossAx val="256477184"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -990,7 +991,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1023,7 +1024,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1100,7 +1101,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1290,8 +1291,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1734144096"/>
-        <c:axId val="-1734144640"/>
+        <c:axId val="256174304"/>
+        <c:axId val="256604440"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1476,11 +1477,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1689109952"/>
-        <c:axId val="-1689106144"/>
+        <c:axId val="256960744"/>
+        <c:axId val="256960360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1734144096"/>
+        <c:axId val="256174304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1553,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1590,15 +1591,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1734144640"/>
+        <c:crossAx val="256604440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1734144640"/>
+        <c:axId val="256604440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,7 +1669,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1703,15 +1704,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1734144096"/>
+        <c:crossAx val="256174304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1689106144"/>
+        <c:axId val="256960360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,7 +1774,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1808,15 +1809,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1689109952"/>
+        <c:crossAx val="256960744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1689109952"/>
+        <c:axId val="256960744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,7 +1827,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1689106144"/>
+        <c:crossAx val="256960360"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1865,7 +1867,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1898,7 +1900,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1954,7 +1956,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1980,7 +1981,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2256,8 +2257,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1741714432"/>
-        <c:axId val="-1741714976"/>
+        <c:axId val="256574504"/>
+        <c:axId val="256648112"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2528,11 +2529,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1699209808"/>
-        <c:axId val="-1699208720"/>
+        <c:axId val="256662192"/>
+        <c:axId val="256653616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1741714432"/>
+        <c:axId val="256574504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2578,7 +2579,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2604,7 +2604,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2642,15 +2642,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1741714976"/>
+        <c:crossAx val="256648112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1741714976"/>
+        <c:axId val="256648112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,7 +2697,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2720,7 +2719,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2755,15 +2754,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1741714432"/>
+        <c:crossAx val="256574504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1699208720"/>
+        <c:axId val="256653616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2812,7 +2811,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2838,7 +2836,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2873,15 +2871,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1699209808"/>
+        <c:crossAx val="256662192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1699209808"/>
+        <c:axId val="256662192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2891,7 +2889,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1699208720"/>
+        <c:crossAx val="256653616"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2904,7 +2903,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2930,7 +2928,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2963,7 +2961,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3014,7 +3012,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3040,7 +3037,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3316,8 +3313,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1690777392"/>
-        <c:axId val="-1690759984"/>
+        <c:axId val="256251184"/>
+        <c:axId val="256251576"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3588,11 +3585,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127517488"/>
-        <c:axId val="-1876458368"/>
+        <c:axId val="256252360"/>
+        <c:axId val="256251968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1690777392"/>
+        <c:axId val="256251184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3643,7 +3640,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3669,7 +3665,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3707,15 +3703,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1690759984"/>
+        <c:crossAx val="256251576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1690759984"/>
+        <c:axId val="256251576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3762,7 +3758,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3785,7 +3780,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3820,15 +3815,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1690777392"/>
+        <c:crossAx val="256251184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1876458368"/>
+        <c:axId val="256251968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3864,7 +3859,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3890,7 +3884,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3925,15 +3919,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127517488"/>
+        <c:crossAx val="256252360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127517488"/>
+        <c:axId val="256252360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3943,7 +3937,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1876458368"/>
+        <c:crossAx val="256251968"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3956,7 +3951,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3982,7 +3976,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4015,7 +4009,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4071,7 +4065,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4097,7 +4090,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4355,8 +4348,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1695787040"/>
-        <c:axId val="-1695788128"/>
+        <c:axId val="256768360"/>
+        <c:axId val="256768752"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4609,11 +4602,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1688694608"/>
-        <c:axId val="-1688695152"/>
+        <c:axId val="256769536"/>
+        <c:axId val="256769144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1695787040"/>
+        <c:axId val="256768360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4664,7 +4657,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4690,7 +4682,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4728,15 +4720,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1695788128"/>
+        <c:crossAx val="256768752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1695788128"/>
+        <c:axId val="256768752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4783,7 +4775,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4806,7 +4797,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4841,15 +4832,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1695787040"/>
+        <c:crossAx val="256768360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1688695152"/>
+        <c:axId val="256769144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4886,15 +4877,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1688694608"/>
+        <c:crossAx val="256769536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1688694608"/>
+        <c:axId val="256769536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4904,7 +4895,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1688695152"/>
+        <c:crossAx val="256769144"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -4917,7 +4909,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4943,7 +4934,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4976,7 +4967,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5027,7 +5018,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5053,7 +5043,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5347,8 +5337,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127520208"/>
-        <c:axId val="-1725863904"/>
+        <c:axId val="256770712"/>
+        <c:axId val="256771104"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5637,11 +5627,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127519120"/>
-        <c:axId val="-1695452816"/>
+        <c:axId val="257143464"/>
+        <c:axId val="257143072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127520208"/>
+        <c:axId val="256770712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5687,7 +5677,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5713,7 +5702,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5751,15 +5740,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1725863904"/>
+        <c:crossAx val="256771104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1725863904"/>
+        <c:axId val="256771104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5806,7 +5795,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5829,7 +5817,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5864,15 +5852,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127520208"/>
+        <c:crossAx val="256770712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1695452816"/>
+        <c:axId val="257143072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5918,7 +5906,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5941,7 +5928,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5976,15 +5963,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127519120"/>
+        <c:crossAx val="257143464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127519120"/>
+        <c:axId val="257143464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5994,7 +5981,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1695452816"/>
+        <c:crossAx val="257143072"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -6007,7 +5995,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6033,7 +6020,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6066,7 +6053,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9863,8 +9850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10212,7 +10199,7 @@
       <c r="A15" s="3">
         <v>100</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>240</v>
       </c>
       <c r="C15" s="4">

--- a/Genetic Algorithm Autom Pack/Experiment Data 2.xlsx
+++ b/Genetic Algorithm Autom Pack/Experiment Data 2.xlsx
@@ -492,8 +492,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256050136"/>
-        <c:axId val="256078976"/>
+        <c:axId val="61623376"/>
+        <c:axId val="61622984"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -598,11 +598,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256525208"/>
-        <c:axId val="256477184"/>
+        <c:axId val="61624160"/>
+        <c:axId val="61623768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256050136"/>
+        <c:axId val="61623376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,12 +715,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256078976"/>
+        <c:crossAx val="61622984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256078976"/>
+        <c:axId val="61622984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,12 +833,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256050136"/>
+        <c:crossAx val="61623376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256477184"/>
+        <c:axId val="61623768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,12 +936,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256525208"/>
+        <c:crossAx val="61624160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256525208"/>
+        <c:axId val="61624160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256477184"/>
+        <c:crossAx val="61623768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1291,8 +1291,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256174304"/>
-        <c:axId val="256604440"/>
+        <c:axId val="61625336"/>
+        <c:axId val="61625728"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1477,11 +1477,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256960744"/>
-        <c:axId val="256960360"/>
+        <c:axId val="61626512"/>
+        <c:axId val="61626120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256174304"/>
+        <c:axId val="61625336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1594,12 +1594,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256604440"/>
+        <c:crossAx val="61625728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256604440"/>
+        <c:axId val="61625728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,10 +1681,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1707,12 +1704,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256174304"/>
+        <c:crossAx val="61625336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256960360"/>
+        <c:axId val="61626120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1786,10 +1783,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1812,12 +1806,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256960744"/>
+        <c:crossAx val="61626512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256960744"/>
+        <c:axId val="61626512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,7 +1821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256960360"/>
+        <c:crossAx val="61626120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1956,6 +1950,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2257,8 +2252,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256574504"/>
-        <c:axId val="256648112"/>
+        <c:axId val="61627688"/>
+        <c:axId val="61628080"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2529,11 +2524,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256662192"/>
-        <c:axId val="256653616"/>
+        <c:axId val="61628864"/>
+        <c:axId val="61628472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256574504"/>
+        <c:axId val="61627688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,6 +2574,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2645,12 +2641,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256648112"/>
+        <c:crossAx val="61628080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256648112"/>
+        <c:axId val="61628080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,6 +2693,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2731,10 +2728,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2757,12 +2751,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256574504"/>
+        <c:crossAx val="61627688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256653616"/>
+        <c:axId val="61628472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2811,6 +2805,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2848,10 +2843,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2874,12 +2866,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256662192"/>
+        <c:crossAx val="61628864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256662192"/>
+        <c:axId val="61628864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2889,7 +2881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256653616"/>
+        <c:crossAx val="61628472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2903,6 +2895,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3012,6 +3005,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3313,8 +3307,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256251184"/>
-        <c:axId val="256251576"/>
+        <c:axId val="242301536"/>
+        <c:axId val="242301928"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3585,11 +3579,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256252360"/>
-        <c:axId val="256251968"/>
+        <c:axId val="242302712"/>
+        <c:axId val="242302320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256251184"/>
+        <c:axId val="242301536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3640,6 +3634,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3706,12 +3701,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256251576"/>
+        <c:crossAx val="242301928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256251576"/>
+        <c:axId val="242301928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3758,6 +3753,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3792,10 +3788,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3818,12 +3811,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256251184"/>
+        <c:crossAx val="242301536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256251968"/>
+        <c:axId val="242302320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3859,6 +3852,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3896,10 +3890,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3922,12 +3913,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256252360"/>
+        <c:crossAx val="242302712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256252360"/>
+        <c:axId val="242302712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3937,7 +3928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256251968"/>
+        <c:crossAx val="242302320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3951,6 +3942,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4065,6 +4057,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4348,8 +4341,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256768360"/>
-        <c:axId val="256768752"/>
+        <c:axId val="242305064"/>
+        <c:axId val="242305456"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4602,11 +4595,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256769536"/>
-        <c:axId val="256769144"/>
+        <c:axId val="242306240"/>
+        <c:axId val="242305848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256768360"/>
+        <c:axId val="242305064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4657,6 +4650,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4723,12 +4717,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256768752"/>
+        <c:crossAx val="242305456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256768752"/>
+        <c:axId val="242305456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4775,6 +4769,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4809,10 +4804,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4835,12 +4827,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256768360"/>
+        <c:crossAx val="242305064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256769144"/>
+        <c:axId val="242305848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4854,10 +4846,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4880,12 +4869,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256769536"/>
+        <c:crossAx val="242306240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256769536"/>
+        <c:axId val="242306240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4895,7 +4884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256769144"/>
+        <c:crossAx val="242305848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4909,6 +4898,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5018,6 +5008,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5337,8 +5328,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256770712"/>
-        <c:axId val="256771104"/>
+        <c:axId val="242307416"/>
+        <c:axId val="242307808"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5627,11 +5618,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257143464"/>
-        <c:axId val="257143072"/>
+        <c:axId val="242308592"/>
+        <c:axId val="242308200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256770712"/>
+        <c:axId val="242307416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5677,6 +5668,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5743,12 +5735,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256771104"/>
+        <c:crossAx val="242307808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256771104"/>
+        <c:axId val="242307808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5795,6 +5787,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5829,10 +5822,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -5855,12 +5845,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256770712"/>
+        <c:crossAx val="242307416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257143072"/>
+        <c:axId val="242308200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5906,6 +5896,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5940,10 +5931,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -5966,12 +5954,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257143464"/>
+        <c:crossAx val="242308592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257143464"/>
+        <c:axId val="242308592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5981,7 +5969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="257143072"/>
+        <c:crossAx val="242308200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5995,6 +5983,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9850,8 +9839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="K97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P131" sqref="P131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Genetic Algorithm Autom Pack/Experiment Data 2.xlsx
+++ b/Genetic Algorithm Autom Pack/Experiment Data 2.xlsx
@@ -264,7 +264,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -492,8 +491,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61623376"/>
-        <c:axId val="61622984"/>
+        <c:axId val="255042352"/>
+        <c:axId val="255042744"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -598,11 +597,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61624160"/>
-        <c:axId val="61623768"/>
+        <c:axId val="255043528"/>
+        <c:axId val="255043136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61623376"/>
+        <c:axId val="255042352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +647,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -715,12 +713,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61622984"/>
+        <c:crossAx val="255042744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61622984"/>
+        <c:axId val="255042744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,7 +764,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -833,12 +830,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61623376"/>
+        <c:crossAx val="255042352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61623768"/>
+        <c:axId val="255043136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +867,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -936,12 +932,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61624160"/>
+        <c:crossAx val="255043528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61624160"/>
+        <c:axId val="255043528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61623768"/>
+        <c:crossAx val="255043136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -965,7 +961,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1291,8 +1286,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61625336"/>
-        <c:axId val="61625728"/>
+        <c:axId val="255044312"/>
+        <c:axId val="255044704"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1477,11 +1472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61626512"/>
-        <c:axId val="61626120"/>
+        <c:axId val="255045488"/>
+        <c:axId val="255045096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61625336"/>
+        <c:axId val="255044312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1594,12 +1589,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61625728"/>
+        <c:crossAx val="255044704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61625728"/>
+        <c:axId val="255044704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1704,12 +1699,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61625336"/>
+        <c:crossAx val="255044312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61626120"/>
+        <c:axId val="255045096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,12 +1801,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61626512"/>
+        <c:crossAx val="255045488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61626512"/>
+        <c:axId val="255045488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,7 +1816,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61626120"/>
+        <c:crossAx val="255045096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2252,8 +2247,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61627688"/>
-        <c:axId val="61628080"/>
+        <c:axId val="255702504"/>
+        <c:axId val="255702896"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2524,11 +2519,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61628864"/>
-        <c:axId val="61628472"/>
+        <c:axId val="255703680"/>
+        <c:axId val="255703288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61627688"/>
+        <c:axId val="255702504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2641,12 +2636,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61628080"/>
+        <c:crossAx val="255702896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61628080"/>
+        <c:axId val="255702896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2751,12 +2746,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61627688"/>
+        <c:crossAx val="255702504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61628472"/>
+        <c:axId val="255703288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2866,12 +2861,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61628864"/>
+        <c:crossAx val="255703680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61628864"/>
+        <c:axId val="255703680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2881,7 +2876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61628472"/>
+        <c:crossAx val="255703288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3307,8 +3302,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242301536"/>
-        <c:axId val="242301928"/>
+        <c:axId val="255704464"/>
+        <c:axId val="255704856"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3579,11 +3574,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242302712"/>
-        <c:axId val="242302320"/>
+        <c:axId val="255705640"/>
+        <c:axId val="255705248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242301536"/>
+        <c:axId val="255704464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3701,12 +3696,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242301928"/>
+        <c:crossAx val="255704856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242301928"/>
+        <c:axId val="255704856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3811,12 +3806,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242301536"/>
+        <c:crossAx val="255704464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242302320"/>
+        <c:axId val="255705248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3913,12 +3908,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242302712"/>
+        <c:crossAx val="255705640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242302712"/>
+        <c:axId val="255705640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3928,7 +3923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242302320"/>
+        <c:crossAx val="255705248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4341,8 +4336,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242305064"/>
-        <c:axId val="242305456"/>
+        <c:axId val="256064440"/>
+        <c:axId val="256064832"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4595,11 +4590,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242306240"/>
-        <c:axId val="242305848"/>
+        <c:axId val="256065616"/>
+        <c:axId val="256065224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242305064"/>
+        <c:axId val="256064440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4717,12 +4712,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242305456"/>
+        <c:crossAx val="256064832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242305456"/>
+        <c:axId val="256064832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4827,12 +4822,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242305064"/>
+        <c:crossAx val="256064440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242305848"/>
+        <c:axId val="256065224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4869,12 +4864,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242306240"/>
+        <c:crossAx val="256065616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242306240"/>
+        <c:axId val="256065616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4884,7 +4879,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242305848"/>
+        <c:crossAx val="256065224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5328,8 +5323,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242307416"/>
-        <c:axId val="242307808"/>
+        <c:axId val="256066400"/>
+        <c:axId val="256066792"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5618,11 +5613,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242308592"/>
-        <c:axId val="242308200"/>
+        <c:axId val="256067576"/>
+        <c:axId val="256067184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242307416"/>
+        <c:axId val="256066400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5735,12 +5730,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242307808"/>
+        <c:crossAx val="256066792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242307808"/>
+        <c:axId val="256066792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5845,12 +5840,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242307416"/>
+        <c:crossAx val="256066400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242308200"/>
+        <c:axId val="256067184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5954,12 +5949,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242308592"/>
+        <c:crossAx val="256067576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242308592"/>
+        <c:axId val="256067576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5969,7 +5964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242308200"/>
+        <c:crossAx val="256067184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9839,8 +9834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P131" sqref="P131"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Genetic Algorithm Autom Pack/Experiment Data 2.xlsx
+++ b/Genetic Algorithm Autom Pack/Experiment Data 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GitHub\PP3\Genetic Algorithm Autom Pack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Simon\Documents\GitHub\PP3\Genetic Algorithm Autom Pack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="38">
   <si>
     <t>All experiments run on an i5-4790k 3.5 GHz processor</t>
   </si>
@@ -118,12 +118,36 @@
   <si>
     <t>Tournament size = 10% of population</t>
   </si>
+  <si>
+    <t>% 1D</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>T (ms)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CrF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +162,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -166,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -174,11 +204,185 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -195,6 +399,64 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -264,6 +526,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -289,7 +552,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -491,8 +754,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="255042352"/>
-        <c:axId val="255042744"/>
+        <c:axId val="-674487808"/>
+        <c:axId val="-674486720"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -597,11 +860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="255043528"/>
-        <c:axId val="255043136"/>
+        <c:axId val="-674489440"/>
+        <c:axId val="-674486176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="255042352"/>
+        <c:axId val="-674487808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -647,6 +910,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -672,7 +936,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -710,15 +974,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255042744"/>
+        <c:crossAx val="-674486720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255042744"/>
+        <c:axId val="-674486720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -764,6 +1028,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -789,7 +1054,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -827,15 +1092,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255042352"/>
+        <c:crossAx val="-674487808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255043136"/>
+        <c:axId val="-674486176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,6 +1132,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -892,7 +1158,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -929,15 +1195,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255043528"/>
+        <c:crossAx val="-674489440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255043528"/>
+        <c:axId val="-674489440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +1213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255043136"/>
+        <c:crossAx val="-674486176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -961,6 +1227,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -986,7 +1253,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1019,7 +1286,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1096,7 +1363,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1286,8 +1553,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="255044312"/>
-        <c:axId val="255044704"/>
+        <c:axId val="-674485088"/>
+        <c:axId val="-674493792"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1472,11 +1739,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="255045488"/>
-        <c:axId val="255045096"/>
+        <c:axId val="-674482912"/>
+        <c:axId val="-674483456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="255044312"/>
+        <c:axId val="-674485088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,7 +1815,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1586,15 +1853,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255044704"/>
+        <c:crossAx val="-674493792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255044704"/>
+        <c:axId val="-674493792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,7 +1931,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1696,15 +1963,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255044312"/>
+        <c:crossAx val="-674485088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255045096"/>
+        <c:axId val="-674483456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,7 +2033,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1798,15 +2065,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255045488"/>
+        <c:crossAx val="-674482912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255045488"/>
+        <c:axId val="-674482912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1816,7 +2083,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255045096"/>
+        <c:crossAx val="-674483456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1856,7 +2123,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1889,7 +2156,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1971,7 +2238,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2247,8 +2514,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="255702504"/>
-        <c:axId val="255702896"/>
+        <c:axId val="-674481824"/>
+        <c:axId val="-674488352"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2519,11 +2786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="255703680"/>
-        <c:axId val="255703288"/>
+        <c:axId val="-674481280"/>
+        <c:axId val="-674493248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="255702504"/>
+        <c:axId val="-674481824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2595,7 +2862,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2633,15 +2900,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255702896"/>
+        <c:crossAx val="-674488352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255702896"/>
+        <c:axId val="-674488352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2711,7 +2978,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2743,15 +3010,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255702504"/>
+        <c:crossAx val="-674481824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255703288"/>
+        <c:axId val="-674493248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2826,7 +3093,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2858,15 +3125,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255703680"/>
+        <c:crossAx val="-674481280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255703680"/>
+        <c:axId val="-674481280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2876,7 +3143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255703288"/>
+        <c:crossAx val="-674493248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2916,7 +3183,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2949,7 +3216,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3026,7 +3293,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3302,8 +3569,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="255704464"/>
-        <c:axId val="255704856"/>
+        <c:axId val="-674495968"/>
+        <c:axId val="-674495424"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3574,11 +3841,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="255705640"/>
-        <c:axId val="255705248"/>
+        <c:axId val="-674492704"/>
+        <c:axId val="-674494880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="255704464"/>
+        <c:axId val="-674495968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3655,7 +3922,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3693,15 +3960,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255704856"/>
+        <c:crossAx val="-674495424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255704856"/>
+        <c:axId val="-674495424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3771,7 +4038,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3803,15 +4070,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255704464"/>
+        <c:crossAx val="-674495968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255705248"/>
+        <c:axId val="-674494880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3873,7 +4140,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3905,15 +4172,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255705640"/>
+        <c:crossAx val="-674492704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255705640"/>
+        <c:axId val="-674492704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3923,7 +4190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255705248"/>
+        <c:crossAx val="-674494880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3963,7 +4230,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3996,7 +4263,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4078,7 +4345,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4336,8 +4603,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256064440"/>
-        <c:axId val="256064832"/>
+        <c:axId val="-422918608"/>
+        <c:axId val="-422914800"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4590,11 +4857,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256065616"/>
-        <c:axId val="256065224"/>
+        <c:axId val="-422915888"/>
+        <c:axId val="-422912080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256064440"/>
+        <c:axId val="-422918608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4671,7 +4938,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4709,15 +4976,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256064832"/>
+        <c:crossAx val="-422914800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256064832"/>
+        <c:axId val="-422914800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4787,7 +5054,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4819,15 +5086,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256064440"/>
+        <c:crossAx val="-422918608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256065224"/>
+        <c:axId val="-422912080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4861,15 +5128,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256065616"/>
+        <c:crossAx val="-422915888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256065616"/>
+        <c:axId val="-422915888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4879,7 +5146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256065224"/>
+        <c:crossAx val="-422912080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4919,7 +5186,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4952,7 +5219,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5029,7 +5296,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5323,8 +5590,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256066400"/>
-        <c:axId val="256066792"/>
+        <c:axId val="-422920240"/>
+        <c:axId val="-422918064"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5613,11 +5880,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256067576"/>
-        <c:axId val="256067184"/>
+        <c:axId val="-422925136"/>
+        <c:axId val="-422922960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256066400"/>
+        <c:axId val="-422920240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5689,7 +5956,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5727,15 +5994,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256066792"/>
+        <c:crossAx val="-422918064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256066792"/>
+        <c:axId val="-422918064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5805,7 +6072,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5837,15 +6104,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256066400"/>
+        <c:crossAx val="-422920240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256067184"/>
+        <c:axId val="-422922960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5914,7 +6181,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5946,15 +6213,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256067576"/>
+        <c:crossAx val="-422925136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256067576"/>
+        <c:axId val="-422925136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5964,7 +6231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256067184"/>
+        <c:crossAx val="-422922960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6004,7 +6271,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6037,7 +6304,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9388,16 +9655,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>750793</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>174811</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403413</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9418,16 +9685,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>67234</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>29135</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>6724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9448,16 +9715,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>62752</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>336178</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9478,16 +9745,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>33616</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>145675</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358587</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9508,16 +9775,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>750795</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>163607</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>179296</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>739589</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504266</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9538,16 +9805,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>324971</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>186018</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9832,10 +10099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:AA187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18:W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9852,9 +10119,17 @@
     <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9862,37 +10137,62 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -9932,8 +10232,34 @@
       <c r="M8" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P8" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>201.2</v>
+      </c>
+      <c r="R8" s="13">
+        <v>2837.72</v>
+      </c>
+      <c r="S8" s="13">
+        <v>214.76</v>
+      </c>
+      <c r="T8" s="13">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="U8" s="13">
+        <v>10.72</v>
+      </c>
+      <c r="V8" s="13">
+        <v>10.76</v>
+      </c>
+      <c r="W8" s="14">
+        <f>Q8/246</f>
+        <v>0.8178861788617886</v>
+      </c>
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>10</v>
       </c>
@@ -9973,8 +10299,34 @@
       <c r="M9" s="4">
         <v>10.76</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P9" s="15">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>208.08</v>
+      </c>
+      <c r="R9" s="16">
+        <v>7112.32</v>
+      </c>
+      <c r="S9" s="16">
+        <v>180.48</v>
+      </c>
+      <c r="T9" s="16">
+        <v>32.880000000000003</v>
+      </c>
+      <c r="U9" s="16">
+        <v>9.36</v>
+      </c>
+      <c r="V9" s="16">
+        <v>14.4</v>
+      </c>
+      <c r="W9" s="17">
+        <f t="shared" ref="W9:W14" si="0">Q9/246</f>
+        <v>0.84585365853658545</v>
+      </c>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>20</v>
       </c>
@@ -10014,8 +10366,34 @@
       <c r="M10" s="4">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P10" s="15">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>230.28</v>
+      </c>
+      <c r="R10" s="16">
+        <v>8371.24</v>
+      </c>
+      <c r="S10" s="16">
+        <v>63.52</v>
+      </c>
+      <c r="T10" s="16">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="U10" s="16">
+        <v>8.36</v>
+      </c>
+      <c r="V10" s="16">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="W10" s="17">
+        <f t="shared" si="0"/>
+        <v>0.93609756097560981</v>
+      </c>
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>35</v>
       </c>
@@ -10055,8 +10433,34 @@
       <c r="M11" s="4">
         <v>18.079999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P11" s="15">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>232.12</v>
+      </c>
+      <c r="R11" s="16">
+        <v>4008.56</v>
+      </c>
+      <c r="S11" s="16">
+        <v>52.72</v>
+      </c>
+      <c r="T11" s="16">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="U11" s="16">
+        <v>8.64</v>
+      </c>
+      <c r="V11" s="16">
+        <v>18.8</v>
+      </c>
+      <c r="W11" s="17">
+        <f t="shared" si="0"/>
+        <v>0.94357723577235775</v>
+      </c>
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>50</v>
       </c>
@@ -10096,8 +10500,34 @@
       <c r="M12" s="4">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P12" s="15">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>234.32</v>
+      </c>
+      <c r="R12" s="16">
+        <v>4652.84</v>
+      </c>
+      <c r="S12" s="16">
+        <v>41.4</v>
+      </c>
+      <c r="T12" s="16">
+        <v>33</v>
+      </c>
+      <c r="U12" s="16">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="V12" s="16">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="W12" s="17">
+        <f t="shared" si="0"/>
+        <v>0.95252032520325203</v>
+      </c>
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>70</v>
       </c>
@@ -10137,8 +10567,34 @@
       <c r="M13" s="4">
         <v>20.440000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P13" s="15">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>236.24</v>
+      </c>
+      <c r="R13" s="16">
+        <v>4446.8</v>
+      </c>
+      <c r="S13" s="16">
+        <v>30.68</v>
+      </c>
+      <c r="T13" s="16">
+        <v>32.68</v>
+      </c>
+      <c r="U13" s="16">
+        <v>8.4</v>
+      </c>
+      <c r="V13" s="16">
+        <v>20.92</v>
+      </c>
+      <c r="W13" s="17">
+        <f t="shared" si="0"/>
+        <v>0.96032520325203252</v>
+      </c>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>85</v>
       </c>
@@ -10178,8 +10634,34 @@
       <c r="M14" s="6">
         <v>20.92</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P14" s="18">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>236.4</v>
+      </c>
+      <c r="R14" s="19">
+        <v>6531.96</v>
+      </c>
+      <c r="S14" s="19">
+        <v>28.4</v>
+      </c>
+      <c r="T14" s="19">
+        <v>31.84</v>
+      </c>
+      <c r="U14" s="19">
+        <v>8.92</v>
+      </c>
+      <c r="V14" s="19">
+        <v>21.04</v>
+      </c>
+      <c r="W14" s="20">
+        <f t="shared" si="0"/>
+        <v>0.96097560975609764</v>
+      </c>
+      <c r="Y14" s="4"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>100</v>
       </c>
@@ -10220,32 +10702,150 @@
         <v>21.04</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P18" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="V18" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P19" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>226.84</v>
+      </c>
+      <c r="R19" s="13">
+        <v>31417.759999999998</v>
+      </c>
+      <c r="S19" s="13">
+        <v>78.88</v>
+      </c>
+      <c r="T19" s="13">
+        <v>30.44</v>
+      </c>
+      <c r="U19" s="13">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="V19" s="13">
+        <v>19.68</v>
+      </c>
+      <c r="W19" s="14">
+        <f>Q19/246</f>
+        <v>0.92211382113821139</v>
+      </c>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P20" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>226.2</v>
+      </c>
+      <c r="R20" s="16">
+        <v>31804.6</v>
+      </c>
+      <c r="S20" s="16">
+        <v>83.08</v>
+      </c>
+      <c r="T20" s="16">
+        <v>30.8</v>
+      </c>
+      <c r="U20" s="16">
+        <v>9</v>
+      </c>
+      <c r="V20" s="16">
+        <v>19.559999999999999</v>
+      </c>
+      <c r="W20" s="17">
+        <f t="shared" ref="W20:W24" si="1">Q20/246</f>
+        <v>0.91951219512195115</v>
+      </c>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>236.52</v>
+      </c>
+      <c r="R21" s="16">
+        <v>5750.12</v>
+      </c>
+      <c r="S21" s="16">
+        <v>28.92</v>
+      </c>
+      <c r="T21" s="16">
+        <v>32.4</v>
+      </c>
+      <c r="U21" s="16">
+        <v>8.48</v>
+      </c>
+      <c r="V21" s="16">
+        <v>21.08</v>
+      </c>
+      <c r="W21" s="17">
+        <f t="shared" si="1"/>
+        <v>0.96146341463414642</v>
+      </c>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -10285,8 +10885,37 @@
       <c r="M22" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P22" s="22">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>236.76</v>
+      </c>
+      <c r="R22" s="16">
+        <v>4583.3999999999996</v>
+      </c>
+      <c r="S22" s="16">
+        <v>29.12</v>
+      </c>
+      <c r="T22" s="16">
+        <v>32.68</v>
+      </c>
+      <c r="U22" s="16">
+        <v>7.88</v>
+      </c>
+      <c r="V22" s="16">
+        <v>21.44</v>
+      </c>
+      <c r="W22" s="17">
+        <f t="shared" si="1"/>
+        <v>0.96243902439024387</v>
+      </c>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -10326,8 +10955,37 @@
       <c r="M23" s="4">
         <v>19.68</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P23" s="22">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>237.84</v>
+      </c>
+      <c r="R23" s="16">
+        <v>4510.3999999999996</v>
+      </c>
+      <c r="S23" s="16">
+        <v>22.48</v>
+      </c>
+      <c r="T23" s="16">
+        <v>32</v>
+      </c>
+      <c r="U23" s="16">
+        <v>8.16</v>
+      </c>
+      <c r="V23" s="16">
+        <v>21.84</v>
+      </c>
+      <c r="W23" s="17">
+        <f t="shared" si="1"/>
+        <v>0.9668292682926829</v>
+      </c>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -10367,8 +11025,37 @@
       <c r="M24" s="6">
         <v>20.32</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P24" s="23">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>237.32</v>
+      </c>
+      <c r="R24" s="19">
+        <v>4475.2</v>
+      </c>
+      <c r="S24" s="19">
+        <v>25.64</v>
+      </c>
+      <c r="T24" s="19">
+        <v>32.32</v>
+      </c>
+      <c r="U24" s="19">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="V24" s="19">
+        <v>21.64</v>
+      </c>
+      <c r="W24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.96471544715447155</v>
+      </c>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>15</v>
       </c>
@@ -10409,7 +11096,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>20</v>
       </c>
@@ -10450,7 +11137,7 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>30</v>
       </c>
@@ -10491,7 +11178,7 @@
         <v>19.28</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>40</v>
       </c>
@@ -10532,17 +11219,17 @@
         <v>19.239999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -14274,6 +14961,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Genetic Algorithm Autom Pack/Experiment Data 2.xlsx
+++ b/Genetic Algorithm Autom Pack/Experiment Data 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Simon\Documents\GitHub\PP3\Genetic Algorithm Autom Pack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GitHub\PP3\Genetic Algorithm Autom Pack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="55">
   <si>
     <t>All experiments run on an i5-4790k 3.5 GHz processor</t>
   </si>
@@ -138,6 +138,57 @@
   </si>
   <si>
     <t>CrF</t>
+  </si>
+  <si>
+    <t>Test No.</t>
+  </si>
+  <si>
+    <t>12479.16</t>
+  </si>
+  <si>
+    <t>61883.96</t>
+  </si>
+  <si>
+    <t>45626.04</t>
+  </si>
+  <si>
+    <t>715.68</t>
+  </si>
+  <si>
+    <t>85670.68</t>
+  </si>
+  <si>
+    <t>29.72</t>
+  </si>
+  <si>
+    <t>81555.08</t>
+  </si>
+  <si>
+    <t>121.44</t>
+  </si>
+  <si>
+    <t>45034.76</t>
+  </si>
+  <si>
+    <t>81.12</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>Compact</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Flat</t>
+  </si>
+  <si>
+    <t>plus D</t>
   </si>
 </sst>
 </file>
@@ -382,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -459,6 +510,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -526,7 +583,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -552,7 +608,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -754,8 +810,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-674487808"/>
-        <c:axId val="-674486720"/>
+        <c:axId val="264703056"/>
+        <c:axId val="264703440"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -860,11 +916,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-674489440"/>
-        <c:axId val="-674486176"/>
+        <c:axId val="264704208"/>
+        <c:axId val="264703824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-674487808"/>
+        <c:axId val="264703056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,7 +966,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -936,7 +991,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -974,15 +1029,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674486720"/>
+        <c:crossAx val="264703440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-674486720"/>
+        <c:axId val="264703440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,7 +1083,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1054,7 +1108,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1092,15 +1146,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674487808"/>
+        <c:crossAx val="264703056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-674486176"/>
+        <c:axId val="264703824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,7 +1186,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1158,7 +1211,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1195,15 +1248,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674489440"/>
+        <c:crossAx val="264704208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-674489440"/>
+        <c:axId val="264704208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-674486176"/>
+        <c:crossAx val="264703824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1227,7 +1280,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1253,7 +1305,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1286,7 +1338,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1337,7 +1389,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1363,7 +1414,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1553,8 +1604,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-674485088"/>
-        <c:axId val="-674493792"/>
+        <c:axId val="264453104"/>
+        <c:axId val="264476016"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1739,11 +1790,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-674482912"/>
-        <c:axId val="-674483456"/>
+        <c:axId val="264491120"/>
+        <c:axId val="264484592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-674485088"/>
+        <c:axId val="264453104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1789,7 +1840,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1815,7 +1865,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1853,15 +1903,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674493792"/>
+        <c:crossAx val="264476016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-674493792"/>
+        <c:axId val="264476016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1908,7 +1958,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1931,7 +1980,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1963,15 +2012,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674485088"/>
+        <c:crossAx val="264453104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-674483456"/>
+        <c:axId val="264484592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,7 +2056,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2033,7 +2081,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2065,15 +2113,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674482912"/>
+        <c:crossAx val="264491120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-674482912"/>
+        <c:axId val="264491120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-674483456"/>
+        <c:crossAx val="264484592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2097,7 +2145,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2123,7 +2170,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2156,7 +2203,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2238,7 +2285,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2514,8 +2561,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-674481824"/>
-        <c:axId val="-674488352"/>
+        <c:axId val="264559400"/>
+        <c:axId val="264572072"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2786,11 +2833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-674481280"/>
-        <c:axId val="-674493248"/>
+        <c:axId val="264585128"/>
+        <c:axId val="264584744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-674481824"/>
+        <c:axId val="264559400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2862,7 +2909,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2900,15 +2947,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674488352"/>
+        <c:crossAx val="264572072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-674488352"/>
+        <c:axId val="264572072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,7 +3025,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3010,15 +3057,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674481824"/>
+        <c:crossAx val="264559400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-674493248"/>
+        <c:axId val="264584744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3093,7 +3140,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3125,15 +3172,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674481280"/>
+        <c:crossAx val="264585128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-674481280"/>
+        <c:axId val="264585128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3143,7 +3190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-674493248"/>
+        <c:crossAx val="264584744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3183,7 +3230,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3216,7 +3263,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3267,7 +3314,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3293,7 +3339,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3569,8 +3615,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-674495968"/>
-        <c:axId val="-674495424"/>
+        <c:axId val="264604376"/>
+        <c:axId val="264920936"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3841,11 +3887,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-674492704"/>
-        <c:axId val="-674494880"/>
+        <c:axId val="264921720"/>
+        <c:axId val="264921328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-674495968"/>
+        <c:axId val="264604376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3896,7 +3942,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3922,7 +3967,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3960,15 +4005,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674495424"/>
+        <c:crossAx val="264920936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-674495424"/>
+        <c:axId val="264920936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4015,7 +4060,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4038,7 +4082,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4070,15 +4114,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674495968"/>
+        <c:crossAx val="264604376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-674494880"/>
+        <c:axId val="264921328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4114,7 +4158,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4140,7 +4183,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4172,15 +4215,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-674492704"/>
+        <c:crossAx val="264921720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-674492704"/>
+        <c:axId val="264921720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4190,7 +4233,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-674494880"/>
+        <c:crossAx val="264921328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4204,7 +4247,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4230,7 +4272,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4263,7 +4305,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4319,7 +4361,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4345,7 +4386,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4603,8 +4644,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-422918608"/>
-        <c:axId val="-422914800"/>
+        <c:axId val="264922504"/>
+        <c:axId val="264922896"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4857,11 +4898,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-422915888"/>
-        <c:axId val="-422912080"/>
+        <c:axId val="264923680"/>
+        <c:axId val="264923288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-422918608"/>
+        <c:axId val="264922504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4912,7 +4953,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4938,7 +4978,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4976,15 +5016,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-422914800"/>
+        <c:crossAx val="264922896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-422914800"/>
+        <c:axId val="264922896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5031,7 +5071,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5054,7 +5093,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5086,15 +5125,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-422918608"/>
+        <c:crossAx val="264922504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-422912080"/>
+        <c:axId val="264923288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5128,15 +5167,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-422915888"/>
+        <c:crossAx val="264923680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-422915888"/>
+        <c:axId val="264923680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5146,7 +5185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-422912080"/>
+        <c:crossAx val="264923288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5160,7 +5199,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5186,7 +5224,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5219,7 +5257,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5296,7 +5334,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5590,8 +5628,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-422920240"/>
-        <c:axId val="-422918064"/>
+        <c:axId val="264924464"/>
+        <c:axId val="265121120"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5880,11 +5918,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-422925136"/>
-        <c:axId val="-422922960"/>
+        <c:axId val="265121904"/>
+        <c:axId val="265121512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-422920240"/>
+        <c:axId val="264924464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5956,7 +5994,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5994,15 +6032,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-422918064"/>
+        <c:crossAx val="265121120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-422918064"/>
+        <c:axId val="265121120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6072,7 +6110,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6104,15 +6142,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-422920240"/>
+        <c:crossAx val="264924464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-422922960"/>
+        <c:axId val="265121512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6181,7 +6219,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6213,15 +6251,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-422925136"/>
+        <c:crossAx val="265121904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-422925136"/>
+        <c:axId val="265121904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6231,7 +6269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-422922960"/>
+        <c:crossAx val="265121512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6271,7 +6309,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6304,7 +6342,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10099,10 +10137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA187"/>
+  <dimension ref="A1:AC187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18:W24"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10129,7 +10167,7 @@
     <col min="23" max="23" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10137,32 +10175,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -10190,9 +10228,23 @@
       <c r="W7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z7" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC7" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -10257,9 +10309,27 @@
         <f>Q8/246</f>
         <v>0.8178861788617886</v>
       </c>
-      <c r="Y8" s="4"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>289.26</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>50</v>
+      </c>
+      <c r="AC8" s="29">
+        <f>Z8/330</f>
+        <v>0.87654545454545452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>10</v>
       </c>
@@ -10324,9 +10394,27 @@
         <f t="shared" ref="W9:W14" si="0">Q9/246</f>
         <v>0.84585365853658545</v>
       </c>
-      <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>123</v>
+      </c>
+      <c r="AC9" s="29">
+        <f>Z9/11</f>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>20</v>
       </c>
@@ -10391,9 +10479,27 @@
         <f t="shared" si="0"/>
         <v>0.93609756097560981</v>
       </c>
-      <c r="Y10" s="4"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>108.56</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC10" s="29">
+        <f>Z10/165</f>
+        <v>0.65793939393939394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>35</v>
       </c>
@@ -10458,9 +10564,27 @@
         <f t="shared" si="0"/>
         <v>0.94357723577235775</v>
       </c>
-      <c r="Y11" s="4"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>248.6</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC11" s="29">
+        <f>Z11/264</f>
+        <v>0.94166666666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>50</v>
       </c>
@@ -10525,9 +10649,27 @@
         <f t="shared" si="0"/>
         <v>0.95252032520325203</v>
       </c>
-      <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>130.68</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC12" s="29">
+        <f>Z12/146</f>
+        <v>0.89506849315068493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>70</v>
       </c>
@@ -10592,9 +10734,27 @@
         <f t="shared" si="0"/>
         <v>0.96032520325203252</v>
       </c>
-      <c r="Y13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>219</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC13" s="3">
+        <f>Z13/230</f>
+        <v>0.95217391304347831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>85</v>
       </c>
@@ -10660,8 +10820,12 @@
         <v>0.96097560975609764</v>
       </c>
       <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>100</v>
       </c>

--- a/Genetic Algorithm Autom Pack/Experiment Data 2.xlsx
+++ b/Genetic Algorithm Autom Pack/Experiment Data 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GitHub\PP3\Genetic Algorithm Autom Pack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Simon\Documents\GitHub\PP3\Genetic Algorithm Autom Pack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="46">
   <si>
     <t>All experiments run on an i5-4790k 3.5 GHz processor</t>
   </si>
@@ -143,36 +143,6 @@
     <t>Test No.</t>
   </si>
   <si>
-    <t>12479.16</t>
-  </si>
-  <si>
-    <t>61883.96</t>
-  </si>
-  <si>
-    <t>45626.04</t>
-  </si>
-  <si>
-    <t>715.68</t>
-  </si>
-  <si>
-    <t>85670.68</t>
-  </si>
-  <si>
-    <t>29.72</t>
-  </si>
-  <si>
-    <t>81555.08</t>
-  </si>
-  <si>
-    <t>121.44</t>
-  </si>
-  <si>
-    <t>45034.76</t>
-  </si>
-  <si>
-    <t>81.12</t>
-  </si>
-  <si>
     <t>Small</t>
   </si>
   <si>
@@ -189,6 +159,9 @@
   </si>
   <si>
     <t>plus D</t>
+  </si>
+  <si>
+    <t>plus D, E</t>
   </si>
 </sst>
 </file>
@@ -433,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -514,6 +487,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -608,7 +584,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -810,8 +786,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264703056"/>
-        <c:axId val="264703440"/>
+        <c:axId val="1960109424"/>
+        <c:axId val="1960103440"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -916,11 +892,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264704208"/>
-        <c:axId val="264703824"/>
+        <c:axId val="1960097456"/>
+        <c:axId val="1960109968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264703056"/>
+        <c:axId val="1960109424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +967,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1029,15 +1005,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264703440"/>
+        <c:crossAx val="1960103440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264703440"/>
+        <c:axId val="1960103440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,7 +1084,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1146,15 +1122,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264703056"/>
+        <c:crossAx val="1960109424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264703824"/>
+        <c:axId val="1960109968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,7 +1187,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1248,15 +1224,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264704208"/>
+        <c:crossAx val="1960097456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264704208"/>
+        <c:axId val="1960097456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264703824"/>
+        <c:crossAx val="1960109968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1305,7 +1281,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1338,7 +1314,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1414,7 +1390,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1604,8 +1580,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264453104"/>
-        <c:axId val="264476016"/>
+        <c:axId val="1960098000"/>
+        <c:axId val="1960104528"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1790,11 +1766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264491120"/>
-        <c:axId val="264484592"/>
+        <c:axId val="1773945248"/>
+        <c:axId val="1960110512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264453104"/>
+        <c:axId val="1960098000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,7 +1841,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1903,15 +1879,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264476016"/>
+        <c:crossAx val="1960104528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264476016"/>
+        <c:axId val="1960104528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,7 +1956,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2012,15 +1988,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264453104"/>
+        <c:crossAx val="1960098000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264484592"/>
+        <c:axId val="1960110512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,7 +2057,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2113,15 +2089,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264491120"/>
+        <c:crossAx val="1773945248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264491120"/>
+        <c:axId val="1773945248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +2107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264484592"/>
+        <c:crossAx val="1960110512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2170,7 +2146,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2203,7 +2179,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2259,7 +2235,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2285,7 +2260,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2561,8 +2536,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264559400"/>
-        <c:axId val="264572072"/>
+        <c:axId val="1773944160"/>
+        <c:axId val="1773946336"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2833,11 +2808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264585128"/>
-        <c:axId val="264584744"/>
+        <c:axId val="1934541472"/>
+        <c:axId val="1773947424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264559400"/>
+        <c:axId val="1773944160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2883,7 +2858,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2909,7 +2883,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2947,15 +2921,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264572072"/>
+        <c:crossAx val="1773946336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264572072"/>
+        <c:axId val="1773946336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,7 +2976,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3025,7 +2998,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3057,15 +3030,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264559400"/>
+        <c:crossAx val="1773944160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264584744"/>
+        <c:axId val="1773947424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3114,7 +3087,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3140,7 +3112,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3172,15 +3144,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264585128"/>
+        <c:crossAx val="1934541472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264585128"/>
+        <c:axId val="1934541472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3190,7 +3162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264584744"/>
+        <c:crossAx val="1773947424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3204,7 +3176,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3230,7 +3201,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3263,7 +3234,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3339,7 +3310,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3615,8 +3586,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264604376"/>
-        <c:axId val="264920936"/>
+        <c:axId val="1934550176"/>
+        <c:axId val="1934550720"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3887,11 +3858,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264921720"/>
-        <c:axId val="264921328"/>
+        <c:axId val="1676004896"/>
+        <c:axId val="1934536032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264604376"/>
+        <c:axId val="1934550176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3967,7 +3938,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4005,15 +3976,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264920936"/>
+        <c:crossAx val="1934550720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264920936"/>
+        <c:axId val="1934550720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4082,7 +4053,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4114,15 +4085,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264604376"/>
+        <c:crossAx val="1934550176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264921328"/>
+        <c:axId val="1934536032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4183,7 +4154,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4215,15 +4186,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264921720"/>
+        <c:crossAx val="1676004896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264921720"/>
+        <c:axId val="1676004896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4233,7 +4204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264921328"/>
+        <c:crossAx val="1934536032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4272,7 +4243,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4305,7 +4276,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4386,7 +4357,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4644,8 +4615,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264922504"/>
-        <c:axId val="264922896"/>
+        <c:axId val="2056885344"/>
+        <c:axId val="2056882624"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4898,11 +4869,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264923680"/>
-        <c:axId val="264923288"/>
+        <c:axId val="2056879360"/>
+        <c:axId val="2056883168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264922504"/>
+        <c:axId val="2056885344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4978,7 +4949,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5016,15 +4987,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264922896"/>
+        <c:crossAx val="2056882624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264922896"/>
+        <c:axId val="2056882624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5093,7 +5064,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5125,15 +5096,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264922504"/>
+        <c:crossAx val="2056885344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264923288"/>
+        <c:axId val="2056883168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5167,15 +5138,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264923680"/>
+        <c:crossAx val="2056879360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264923680"/>
+        <c:axId val="2056879360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5185,7 +5156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264923288"/>
+        <c:crossAx val="2056883168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5224,7 +5195,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5257,7 +5228,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5308,7 +5279,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5334,7 +5304,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5628,8 +5598,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264924464"/>
-        <c:axId val="265121120"/>
+        <c:axId val="2056876096"/>
+        <c:axId val="2056881536"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5918,11 +5888,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="265121904"/>
-        <c:axId val="265121512"/>
+        <c:axId val="2056878816"/>
+        <c:axId val="2056888608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264924464"/>
+        <c:axId val="2056876096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5968,7 +5938,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5994,7 +5963,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6032,15 +6001,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265121120"/>
+        <c:crossAx val="2056881536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265121120"/>
+        <c:axId val="2056881536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6087,7 +6056,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6110,7 +6078,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6142,15 +6110,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264924464"/>
+        <c:crossAx val="2056876096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265121512"/>
+        <c:axId val="2056888608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6196,7 +6164,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6219,7 +6186,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6251,15 +6218,15 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265121904"/>
+        <c:crossAx val="2056878816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265121904"/>
+        <c:axId val="2056878816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6269,7 +6236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265121512"/>
+        <c:crossAx val="2056888608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6283,7 +6250,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6309,7 +6275,7 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6342,7 +6308,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10139,8 +10105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10310,7 +10276,7 @@
         <v>0.8178861788617886</v>
       </c>
       <c r="X8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="Y8" s="4">
         <v>1</v>
@@ -10318,8 +10284,8 @@
       <c r="Z8" s="3">
         <v>289.26</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>39</v>
+      <c r="AA8" s="30">
+        <v>12479.16</v>
       </c>
       <c r="AB8" s="3">
         <v>50</v>
@@ -10395,7 +10361,7 @@
         <v>0.84585365853658545</v>
       </c>
       <c r="X9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Y9" s="4">
         <v>2</v>
@@ -10403,8 +10369,8 @@
       <c r="Z9" s="3">
         <v>10</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>40</v>
+      <c r="AA9" s="30">
+        <v>61883.96</v>
       </c>
       <c r="AB9" s="3">
         <v>123</v>
@@ -10480,7 +10446,7 @@
         <v>0.93609756097560981</v>
       </c>
       <c r="X10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y10" s="4">
         <v>3</v>
@@ -10488,11 +10454,11 @@
       <c r="Z10" s="3">
         <v>108.56</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>42</v>
+      <c r="AA10" s="30">
+        <v>45626.04</v>
+      </c>
+      <c r="AB10" s="30">
+        <v>715.68</v>
       </c>
       <c r="AC10" s="29">
         <f>Z10/165</f>
@@ -10565,7 +10531,7 @@
         <v>0.94357723577235775</v>
       </c>
       <c r="X11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="Y11" s="4">
         <v>4</v>
@@ -10573,11 +10539,11 @@
       <c r="Z11" s="3">
         <v>248.6</v>
       </c>
-      <c r="AA11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>44</v>
+      <c r="AA11" s="30">
+        <v>85670.68</v>
+      </c>
+      <c r="AB11" s="30">
+        <v>29.72</v>
       </c>
       <c r="AC11" s="29">
         <f>Z11/264</f>
@@ -10650,7 +10616,7 @@
         <v>0.95252032520325203</v>
       </c>
       <c r="X12" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="Y12" s="4">
         <v>5</v>
@@ -10658,11 +10624,11 @@
       <c r="Z12" s="3">
         <v>130.68</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>46</v>
+      <c r="AA12" s="30">
+        <v>81555.08</v>
+      </c>
+      <c r="AB12" s="30">
+        <v>121.44</v>
       </c>
       <c r="AC12" s="29">
         <f>Z12/146</f>
@@ -10735,23 +10701,23 @@
         <v>0.96032520325203252</v>
       </c>
       <c r="X13" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="Y13" s="4">
         <v>6</v>
       </c>
       <c r="Z13" s="3">
-        <v>219</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC13" s="3">
-        <f>Z13/230</f>
-        <v>0.95217391304347831</v>
+        <v>185.28</v>
+      </c>
+      <c r="AA13" s="30">
+        <v>5555.32</v>
+      </c>
+      <c r="AB13" s="30">
+        <v>99</v>
+      </c>
+      <c r="AC13" s="29">
+        <f>Z13/195</f>
+        <v>0.95015384615384613</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10819,11 +10785,25 @@
         <f t="shared" si="0"/>
         <v>0.96097560975609764</v>
       </c>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
+      <c r="X14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>187.6</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>39986.68</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="AC14" s="29">
+        <f>Z14/198</f>
+        <v>0.94747474747474747</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3">

--- a/Genetic Algorithm Autom Pack/Experiment Data 2.xlsx
+++ b/Genetic Algorithm Autom Pack/Experiment Data 2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="50">
   <si>
     <t>All experiments run on an i5-4790k 3.5 GHz processor</t>
   </si>
@@ -163,6 +163,18 @@
   <si>
     <t>plus D, E</t>
   </si>
+  <si>
+    <t>plus D, E, F</t>
+  </si>
+  <si>
+    <t>15 of each</t>
+  </si>
+  <si>
+    <t>10 of each</t>
+  </si>
+  <si>
+    <t>infinite</t>
+  </si>
 </sst>
 </file>
 
@@ -220,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -402,11 +414,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -490,6 +511,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -786,8 +811,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1960109424"/>
-        <c:axId val="1960103440"/>
+        <c:axId val="1934546912"/>
+        <c:axId val="1934550176"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -892,11 +917,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1960097456"/>
-        <c:axId val="1960109968"/>
+        <c:axId val="1934550720"/>
+        <c:axId val="1934547456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1960109424"/>
+        <c:axId val="1934546912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,12 +1033,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1960103440"/>
+        <c:crossAx val="1934550176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1960103440"/>
+        <c:axId val="1934550176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,12 +1150,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1960109424"/>
+        <c:crossAx val="1934546912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1960109968"/>
+        <c:axId val="1934547456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,12 +1252,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1960097456"/>
+        <c:crossAx val="1934550720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1960097456"/>
+        <c:axId val="1934550720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,7 +1267,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1960109968"/>
+        <c:crossAx val="1934547456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1580,8 +1605,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1960098000"/>
-        <c:axId val="1960104528"/>
+        <c:axId val="1934542560"/>
+        <c:axId val="1934543648"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1766,11 +1791,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1773945248"/>
-        <c:axId val="1960110512"/>
+        <c:axId val="1934543104"/>
+        <c:axId val="1934535488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1960098000"/>
+        <c:axId val="1934542560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,12 +1907,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1960104528"/>
+        <c:crossAx val="1934543648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1960104528"/>
+        <c:axId val="1934543648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,12 +2016,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1960098000"/>
+        <c:crossAx val="1934542560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1960110512"/>
+        <c:axId val="1934535488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,12 +2117,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1773945248"/>
+        <c:crossAx val="1934543104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1773945248"/>
+        <c:axId val="1934543104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2107,7 +2132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1960110512"/>
+        <c:crossAx val="1934535488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2536,8 +2561,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1773944160"/>
-        <c:axId val="1773946336"/>
+        <c:axId val="1934537120"/>
+        <c:axId val="1934537664"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2808,11 +2833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1934541472"/>
-        <c:axId val="1773947424"/>
+        <c:axId val="1934538752"/>
+        <c:axId val="1934538208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1773944160"/>
+        <c:axId val="1934537120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2924,12 +2949,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1773946336"/>
+        <c:crossAx val="1934537664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1773946336"/>
+        <c:axId val="1934537664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3033,12 +3058,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1773944160"/>
+        <c:crossAx val="1934537120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1773947424"/>
+        <c:axId val="1934538208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3147,12 +3172,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1934541472"/>
+        <c:crossAx val="1934538752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1934541472"/>
+        <c:axId val="1934538752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3162,7 +3187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1773947424"/>
+        <c:crossAx val="1934538208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3586,8 +3611,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1934550176"/>
-        <c:axId val="1934550720"/>
+        <c:axId val="1960101808"/>
+        <c:axId val="1960097456"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3858,11 +3883,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1676004896"/>
-        <c:axId val="1934536032"/>
+        <c:axId val="1960102896"/>
+        <c:axId val="1960110512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1934550176"/>
+        <c:axId val="1960101808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3979,12 +4004,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1934550720"/>
+        <c:crossAx val="1960097456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1934550720"/>
+        <c:axId val="1960097456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4088,12 +4113,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1934550176"/>
+        <c:crossAx val="1960101808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1934536032"/>
+        <c:axId val="1960110512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4189,12 +4214,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676004896"/>
+        <c:crossAx val="1960102896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1676004896"/>
+        <c:axId val="1960102896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4204,7 +4229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1934536032"/>
+        <c:crossAx val="1960110512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4615,8 +4640,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2056885344"/>
-        <c:axId val="2056882624"/>
+        <c:axId val="1960107248"/>
+        <c:axId val="1960103440"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4869,11 +4894,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2056879360"/>
-        <c:axId val="2056883168"/>
+        <c:axId val="1960108880"/>
+        <c:axId val="1960100176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2056885344"/>
+        <c:axId val="1960107248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4990,12 +5015,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056882624"/>
+        <c:crossAx val="1960103440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2056882624"/>
+        <c:axId val="1960103440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5099,12 +5124,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056885344"/>
+        <c:crossAx val="1960107248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2056883168"/>
+        <c:axId val="1960100176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5141,12 +5166,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056879360"/>
+        <c:crossAx val="1960108880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2056879360"/>
+        <c:axId val="1960108880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5156,7 +5181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2056883168"/>
+        <c:crossAx val="1960100176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5598,8 +5623,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2056876096"/>
-        <c:axId val="2056881536"/>
+        <c:axId val="1960109424"/>
+        <c:axId val="1960109968"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5888,11 +5913,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2056878816"/>
-        <c:axId val="2056888608"/>
+        <c:axId val="1677058160"/>
+        <c:axId val="1960111600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2056876096"/>
+        <c:axId val="1960109424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6004,12 +6029,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056881536"/>
+        <c:crossAx val="1960109968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2056881536"/>
+        <c:axId val="1960109968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6113,12 +6138,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056876096"/>
+        <c:crossAx val="1960109424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2056888608"/>
+        <c:axId val="1960111600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6221,12 +6246,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056878816"/>
+        <c:crossAx val="1677058160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2056878816"/>
+        <c:axId val="1677058160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6236,7 +6261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2056888608"/>
+        <c:crossAx val="1960111600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10103,10 +10128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC187"/>
+  <dimension ref="A1:AD187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10133,7 +10158,7 @@
     <col min="23" max="23" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10141,32 +10166,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -10210,7 +10235,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -10295,7 +10320,7 @@
         <v>0.87654545454545452</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>10</v>
       </c>
@@ -10380,7 +10405,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>20</v>
       </c>
@@ -10465,7 +10490,7 @@
         <v>0.65793939393939394</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>35</v>
       </c>
@@ -10550,7 +10575,7 @@
         <v>0.94166666666666665</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>50</v>
       </c>
@@ -10635,7 +10660,7 @@
         <v>0.89506849315068493</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>70</v>
       </c>
@@ -10707,20 +10732,23 @@
         <v>6</v>
       </c>
       <c r="Z13" s="3">
-        <v>185.28</v>
+        <v>186.24</v>
       </c>
       <c r="AA13" s="30">
-        <v>5555.32</v>
+        <v>33130.76</v>
       </c>
       <c r="AB13" s="30">
-        <v>99</v>
+        <v>165.52</v>
       </c>
       <c r="AC13" s="29">
         <f>Z13/195</f>
-        <v>0.95015384615384613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.95507692307692316</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>85</v>
       </c>
@@ -10804,8 +10832,11 @@
         <f>Z14/198</f>
         <v>0.94747474747474747</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>100</v>
       </c>
@@ -10845,13 +10876,81 @@
       <c r="M15" s="4">
         <v>21.04</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>140.04</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>37154.92</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>220.4</v>
+      </c>
+      <c r="AC15" s="29">
+        <f>Z15/148</f>
+        <v>0.94621621621621621</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>213.36</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>51289.88</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>80.2</v>
+      </c>
+      <c r="AC16" s="29">
+        <f>Z16/247</f>
+        <v>0.86380566801619441</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>201.36</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>72838.039999999994</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>66.56</v>
+      </c>
+      <c r="AC17" s="29">
+        <f>Z17/247</f>
+        <v>0.81522267206477739</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -10879,12 +10978,30 @@
       <c r="W18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X18" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>11</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>204.12</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>73388.08</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>74.239999999999995</v>
+      </c>
+      <c r="AC18" s="29">
+        <f>Z18/247</f>
+        <v>0.82639676113360327</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -10915,10 +11032,12 @@
       </c>
       <c r="X19" s="21"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="29"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -10951,8 +11070,9 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC20" s="31"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -10988,8 +11108,9 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC21" s="31"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -11058,8 +11179,9 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="21"/>
       <c r="AA22" s="21"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC22" s="31"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -11128,8 +11250,9 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
-    </row>
-    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC23" s="31"/>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>10</v>
       </c>
@@ -11198,8 +11321,9 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC24" s="31"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>15</v>
       </c>
@@ -11239,8 +11363,9 @@
       <c r="M25" s="4">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC25" s="31"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>20</v>
       </c>
@@ -11281,7 +11406,7 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>30</v>
       </c>
@@ -11322,7 +11447,7 @@
         <v>19.28</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>40</v>
       </c>
@@ -11363,17 +11488,17 @@
         <v>19.239999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
